--- a/results_Evolution/pvalues_all.xlsx
+++ b/results_Evolution/pvalues_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oschwery\Documents\SELU-Postdoc\FBD_PPS\results_Evolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E0031E05-F8CB-428D-BEF7-7E931B702760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{35D870AA-DE8D-4193-838E-20E846B32FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-9060" windowWidth="19440" windowHeight="15150"/>
   </bookViews>
@@ -1262,7 +1262,227 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1665,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AN19" sqref="AN19"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Z189" sqref="Z189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1746,94 +1966,94 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="P2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="U2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AE2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="AJ2" t="s">
@@ -22386,16 +22606,64 @@
     <sortCondition ref="AJ3:AJ182"/>
   </sortState>
   <conditionalFormatting sqref="F3:I182 K3:N182 P3:S182 U3:X182 Z3:AC182 AE3:AH182 AK3 AK6 AK9 AK12 AK15 AK18 AK21 AK24 AK27 AK30 AK33 AK36 AK39 AK42 AK45 AK48 AK51 AK54 AK57 AK60 AK63 AK66 AK69 AK72 AK75 AK78 AK81 AK84 AK87 AK90 AK93 AK96 AK99 AK102 AK105 AK108 AK111 AK114 AK117 AK120 AK123 AK126 AK129 AK132 AK135 AK138 AK141 AK144 AK147 AK150 AK153 AK156 AK159 AK162 AK165 AK168 AK171 AK174 AK177 AK180">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H182 M3:M182 R3:R182 W3:W182 AB3:AB182 AG3:AG182">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ182">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D182">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN3:AN12">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J182 O3:O182 T3:T182 Y3:Y182 AD3:AD182 AI3:AI182">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color theme="7"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F183:AH183">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -22407,7 +22675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D182">
+  <conditionalFormatting sqref="F184:AH184">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -22419,7 +22687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN3:AN12">
+  <conditionalFormatting sqref="F185:AH185">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
